--- a/biology/Botanique/Frêne_d'Oregon/Frêne_d'Oregon.xlsx
+++ b/biology/Botanique/Frêne_d'Oregon/Frêne_d'Oregon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fr%C3%AAne_d%27Oregon</t>
+          <t>Frêne_d'Oregon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fraxinus latifolia, le frêne d'Orégon, frêne de l'Oregon ou frêne à larges feuilles, est une espèce d'arbres à feuilles caduques de la famille des Oleaceae, originaire d'Amérique du Nord.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fr%C3%AAne_d%27Oregon</t>
+          <t>Frêne_d'Oregon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce préfère les sols de fond de vallée, riches en humus, profonds, frais et humides.
 Elle affectionne particulièrement les sols argilo-limoneux bordant les rivières.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fr%C3%AAne_d%27Oregon</t>
+          <t>Frêne_d'Oregon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C’est un arbre à feuillage caduc, poussant à une hauteur variant entre 20 et 25 m, avec un tronc droit dont le rhytidome de couleur gris verdâtre, se fissure en vieillissant.
 Dans de bonnes conditions, il peut facilement vivre 250 ans.
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fr%C3%AAne_d%27Oregon</t>
+          <t>Frêne_d'Oregon</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En Amérique, il est recherché pour la fabrication de charpentes, de meubles, d’équipements sportifs, de manches d'outil et de tonneaux. Sa grande rapidité de croissance, son haut pouvoir calorifique et la facilité avec laquelle il se laisse fendre en font aussi un bois de chauffage recherché.
 En Europe, il est plutôt utilisé pour l’ornementation des parcs où il peut être planté en sujet isolé ou dans les massifs, car il est très rustique et a une belle silhouette.
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fr%C3%AAne_d%27Oregon</t>
+          <t>Frêne_d'Oregon</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,11 +630,13 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom scientifique complet (avec auteur) de ce taxon est Fraxinus latifolia Benth.[1].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : « Frêne d'Orégon »[1], « Frêne de l'Oregon »[1],[2] ou « Frêne à larges feuilles »[1].
-Fraxinus latifolia a pour synonymes[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique complet (avec auteur) de ce taxon est Fraxinus latifolia Benth..
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : « Frêne d'Orégon », « Frêne de l'Oregon », ou « Frêne à larges feuilles ».
+Fraxinus latifolia a pour synonymes :
 Fraxinus americana subsp. oregana (Nutt.) Wesm., 1892
 Fraxinus americana subsp. oregona (Nutt.) Wesm.
 Fraxinus californica Dippel
